--- a/data/trans_dic/P18_6_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P18_6_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se ha sentido tranquila en ningún momento o casi ningún momento en la última semana</t>
+          <t>Población que se ha sentido tranquila en ningún momento o casi ningún momento en la última semana (tasa de respuesta: 99,75%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>9,07%</t>
+          <t>16,77%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>10,13%</t>
+          <t>24,13%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>14,24%</t>
+          <t>30,03%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,69%</t>
+          <t>8,51%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>18,52%</t>
+          <t>11,44%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>8,5%</t>
+          <t>18,77%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>14,89%</t>
+          <t>12,33%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>15,31%</t>
+          <t>17,01%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>14,31%</t>
+          <t>15,22%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>9,26%</t>
+          <t>20,28%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>14,61%</t>
+          <t>17,84%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>10,76%</t>
+          <t>17,91%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>23,22%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>11,98%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>16,27%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 32,06</t>
+          <t>0,0; 47,24</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,07; 35,56</t>
+          <t>0,0; 66,39</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,93; 39,98</t>
+          <t>8,18; 66,03</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,56; 11,59</t>
+          <t>1,62; 21,25</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>12,11; 26,99</t>
+          <t>3,04; 23,07</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,27; 13,91</t>
+          <t>8,56; 30,84</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8,52; 21,8</t>
+          <t>4,79; 23,27</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,34; 22,35</t>
+          <t>8,47; 29,48</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>9,02; 25,46</t>
+          <t>7,35; 29,19</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>4,47; 21,72</t>
+          <t>10,81; 34,96</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>9,53; 26,23</t>
+          <t>7,6; 37,6</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>6,73; 15,33</t>
+          <t>6,43; 42,35</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>11,8; 45,59</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>6,09; 20,89</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>8,48; 25,95</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,46%</t>
+          <t>4,85%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,88%</t>
+          <t>6,04%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,72%</t>
+          <t>4,94%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,37%</t>
+          <t>6,31%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>16,2%</t>
+          <t>7,17%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>11,24%</t>
+          <t>19,42%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>14,57%</t>
+          <t>12,09%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>13,63%</t>
+          <t>16,28%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>11,55%</t>
+          <t>17,17%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>8,18%</t>
+          <t>19,52%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>9,15%</t>
+          <t>12,34%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>9,87%</t>
+          <t>9,18%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>10,65%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>11,57%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>13,19%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,91; 9,64</t>
+          <t>2,0; 8,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,96; 8,01</t>
+          <t>3,13; 10,72</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,91; 6,27</t>
+          <t>2,32; 9,9</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,86; 9,65</t>
+          <t>3,22; 11,38</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>12,38; 20,5</t>
+          <t>3,33; 12,69</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,66; 15,95</t>
+          <t>14,27; 26,49</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>10,56; 19,14</t>
+          <t>7,99; 17,41</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>9,94; 18,97</t>
+          <t>11,22; 21,96</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>9,16; 14,34</t>
+          <t>12,3; 24,16</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>5,97; 10,88</t>
+          <t>14,3; 27,17</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7,03; 11,78</t>
+          <t>9,06; 16,3</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,63; 12,83</t>
+          <t>6,37; 12,91</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>7,86; 14,42</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>8,68; 15,48</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>9,69; 17,35</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,68%</t>
+          <t>6,3%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,37%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,05%</t>
+          <t>5,59%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,02%</t>
+          <t>7,03%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>14,27%</t>
+          <t>11,58%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>5,89%</t>
+          <t>13,79%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>13,04%</t>
+          <t>4,02%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>10,99%</t>
+          <t>10,86%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>11,23%</t>
+          <t>7,58%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>5,19%</t>
+          <t>13,84%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>9,31%</t>
+          <t>10,47%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>9,11%</t>
+          <t>3,5%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>8,48%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>7,33%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>12,78%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1104,84 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,44; 12,88</t>
+          <t>2,94; 12,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,08; 8,03</t>
+          <t>0,63; 6,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,59; 9,12</t>
+          <t>2,32; 11,22</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,91; 11,42</t>
+          <t>3,08; 13,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>10,4; 19,22</t>
+          <t>6,3; 19,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,16; 9,1</t>
+          <t>8,93; 19,71</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,24; 17,73</t>
+          <t>1,73; 7,89</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,39; 15,73</t>
+          <t>6,93; 17,22</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>8,53; 14,34</t>
+          <t>4,16; 12,05</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3,35; 7,52</t>
+          <t>9,22; 19,84</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,99; 12,22</t>
+          <t>7,16; 14,4</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,65; 11,93</t>
+          <t>1,84; 6,05</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>5,78; 12,47</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>4,89; 10,53</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>9,36; 17,24</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>15,94%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>8,9%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>14,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>13,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>11,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>7,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>10,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>9,79%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1274,1725 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,12; 11,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,5; 10,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,68; 10,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,49; 8,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,53; 19,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,78; 11,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>11,51; 17,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,62; 16,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>10,23; 14,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>5,78; 9,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>8,31; 12,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>8,13; 11,7</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7,01%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>7,39%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>8,64%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>6,88%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>9,38%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>16,98%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>8,78%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>14,17%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>13,07%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>17,61%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>12,34%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>8,14%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>11,53%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>10,05%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>13,6%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>3,88; 15,75</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>3,66; 19,01</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>4,77; 17,58</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>4,46; 10,3</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>6,27; 13,27</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>13,53; 20,54</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>6,42; 12,12</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>10,91; 18,3</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>9,97; 16,98</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>14,07; 22,23</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>9,76; 15,94</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>6,08; 13,1</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>9,16; 16,46</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>7,84; 12,55</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>10,93; 16,65</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se ha sentido tranquila en ningún momento o casi ningún momento en la última semana (tasa de respuesta: 99,75%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>16981</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>30345</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>31666</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>9711</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>20009</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>22110</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>17277</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>19645</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>18627</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>42710</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>39091</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>47622</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>51311</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>28338</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>62719</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 47842</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 83473</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>8623; 69635</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1852; 24257</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>5317; 40364</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>10086; 36330</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>6709; 32600</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>9783; 34055</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>8999; 35731</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>22765; 73633</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>16653; 82375</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>17087; 112584</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>26065; 100744</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>14410; 49419</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>32697; 100077</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>17597</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>25933</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>18590</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>25211</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>37068</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>74529</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>56134</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>62009</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>64422</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>95973</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>92126</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>82067</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>80599</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>89633</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>133042</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>7266; 31679</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>13426; 46040</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>8731; 37265</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>12864; 45464</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>17216; 65591</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>54766; 101649</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>37121; 80846</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>42734; 83632</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>46137; 90638</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>70289; 133539</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>67657; 121682</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>56980; 115400</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>59489; 109218</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>67248; 119900</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>97692; 174894</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>18012</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>9373</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>15794</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>19360</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>40914</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>49585</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>17238</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>37201</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>24813</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>55293</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>67597</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>26610</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>52995</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>44173</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>96207</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>8402; 35627</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2110; 21416</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>6541; 31693</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>8481; 37337</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>22272; 67597</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>32099; 70880</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>7412; 33812</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>23734; 58998</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>13625; 39469</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>36817; 79282</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>46251; 92951</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>14046; 46040</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>36106; 77922</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>29484; 63472</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>70496; 129804</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>52589</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>65651</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>66050</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>54282</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>97992</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>146224</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>90649</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>118855</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>107862</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>193977</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>198813</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>156300</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>184905</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>162144</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>291968</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>29098; 118115</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>32473; 168867</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>36416; 134315</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>35174; 81260</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>65545; 138704</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>116538; 176868</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>66291; 125173</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>91572; 153552</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>82243; 140067</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>155032; 244925</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>157154; 256715</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>116844; 251635</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>146780; 263874</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>126592; 202525</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>234587; 357470</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
